--- a/CorrectLink/ig/StructureDefinition-FrMedicationHistoryComposition.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrMedicationHistoryComposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T14:52:17+00:00</t>
+    <t>2024-08-13T15:15:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrMedicationHistoryComposition.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrMedicationHistoryComposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T15:15:18+00:00</t>
+    <t>2024-08-13T15:46:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrMedicationHistoryComposition.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrMedicationHistoryComposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T15:46:10+00:00</t>
+    <t>2024-08-13T16:03:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrMedicationHistoryComposition.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrMedicationHistoryComposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T16:03:55+00:00</t>
+    <t>2024-08-14T14:01:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrMedicationHistoryComposition.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrMedicationHistoryComposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T14:01:00+00:00</t>
+    <t>2024-08-14T14:25:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrMedicationHistoryComposition.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrMedicationHistoryComposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T14:25:26+00:00</t>
+    <t>2024-08-14T14:41:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrMedicationHistoryComposition.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrMedicationHistoryComposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T14:41:25+00:00</t>
+    <t>2024-08-14T15:19:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrMedicationHistoryComposition.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrMedicationHistoryComposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T15:19:31+00:00</t>
+    <t>2024-08-14T15:47:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrMedicationHistoryComposition.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrMedicationHistoryComposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T15:47:42+00:00</t>
+    <t>2024-08-14T16:13:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrMedicationHistoryComposition.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrMedicationHistoryComposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T16:13:05+00:00</t>
+    <t>2024-08-14T16:30:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrMedicationHistoryComposition.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrMedicationHistoryComposition.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2877" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2869" uniqueCount="510">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T16:30:57+00:00</t>
+    <t>2024-09-03T11:41:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -273,7 +273,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -329,17 +329,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Composition.implicitRules</t>
   </si>
   <si>
@@ -359,9 +352,6 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Composition.language</t>
   </si>
   <si>
@@ -439,6 +429,9 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Composition.extension</t>
   </si>
   <si>
@@ -459,6 +452,162 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Composition.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Composition.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Version-independent identifier for the Composition</t>
+  </si>
+  <si>
+    <t>A version-independent identifier for the Composition. This identifier stays constant as the composition is changed over time.</t>
+  </si>
+  <si>
+    <t>Similar to ClinicalDocument/setId in CDA. See discussion in resource definition for how these relate.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>Document.id / Document.setId</t>
+  </si>
+  <si>
+    <t>.setId</t>
+  </si>
+  <si>
+    <t>DocumentReference.masterIdentifier</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Composition.status</t>
+  </si>
+  <si>
+    <t>preliminary | final | amended | entered-in-error</t>
+  </si>
+  <si>
+    <t>The workflow/clinical status of this composition. The status is a marker for the clinical standing of the document.</t>
+  </si>
+  <si>
+    <t>If a composition is marked as withdrawn, the compositions/documents in the series, or data from the composition or document series, should never be displayed to a user without being clearly marked as untrustworthy. The flag "entered-in-error" is why this element is labeled as a modifier of other elements.   
+Some reporting work flows require that the original narrative of a final document never be altered; instead, only new narrative can be added. The composition resource has no explicit status for explicitly noting whether this business rule is in effect. This would be handled by an extension if required.</t>
+  </si>
+  <si>
+    <t>Need to be able to mark interim, amended, or withdrawn compositions or documents.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The workflow/clinical status of the composition.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/composition-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>interim: .completionCode="IN" &amp; ./statusCode[isNormalDatatype()]="active";  final: .completionCode="AU" &amp;&amp;  ./statusCode[isNormalDatatype()]="complete" and not(./inboundRelationship[typeCode="SUBJ" and isNormalActRelationship()]/source[subsumesCode("ActClass#CACT") and moodCode="EVN" and domainMember("ReviseComposition", code) and isNormalAct()]);  amended: .completionCode="AU" &amp;&amp;  ./statusCode[isNormalDatatype()]="complete" and ./inboundRelationship[typeCode="SUBJ" and isNormalActRelationship()]/source[subsumesCode("ActClass#CACT") and moodCode="EVN" and domainMember("ReviseComposition", code) and isNormalAct() and statusCode="completed"];  withdrawn : .completionCode=NI &amp;&amp;  ./statusCode[isNormalDatatype()]="obsolete"</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>DocumentReference.status</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Composition.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Kind of composition (LOINC if possible)</t>
+  </si>
+  <si>
+    <t>Specifies the particular kind of composition (e.g. History and Physical, Discharge Summary, Progress Note). This usually equates to the purpose of making the composition.</t>
+  </si>
+  <si>
+    <t>For Composition type, LOINC is ubiquitous and strongly endorsed by HL7. Most implementation guides will require a specific LOINC code, or use LOINC as an extensible binding.</t>
+  </si>
+  <si>
+    <t>Coder le contexte *Bilan Médicamenteux* de cette Composition.</t>
+  </si>
+  <si>
+    <t>Type of a composition.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/doc-typecodes</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>DocumentReference.type</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Composition.type.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>Composition.type.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
@@ -467,159 +616,6 @@
   </si>
   <si>
     <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Composition.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Composition.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Version-independent identifier for the Composition</t>
-  </si>
-  <si>
-    <t>A version-independent identifier for the Composition. This identifier stays constant as the composition is changed over time.</t>
-  </si>
-  <si>
-    <t>Similar to ClinicalDocument/setId in CDA. See discussion in resource definition for how these relate.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>Document.id / Document.setId</t>
-  </si>
-  <si>
-    <t>.setId</t>
-  </si>
-  <si>
-    <t>DocumentReference.masterIdentifier</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Composition.status</t>
-  </si>
-  <si>
-    <t>preliminary | final | amended | entered-in-error</t>
-  </si>
-  <si>
-    <t>The workflow/clinical status of this composition. The status is a marker for the clinical standing of the document.</t>
-  </si>
-  <si>
-    <t>If a composition is marked as withdrawn, the compositions/documents in the series, or data from the composition or document series, should never be displayed to a user without being clearly marked as untrustworthy. The flag "entered-in-error" is why this element is labeled as a modifier of other elements.   
-Some reporting work flows require that the original narrative of a final document never be altered; instead, only new narrative can be added. The composition resource has no explicit status for explicitly noting whether this business rule is in effect. This would be handled by an extension if required.</t>
-  </si>
-  <si>
-    <t>Need to be able to mark interim, amended, or withdrawn compositions or documents.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The workflow/clinical status of the composition.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/composition-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>interim: .completionCode="IN" &amp; ./statusCode[isNormalDatatype()]="active";  final: .completionCode="AU" &amp;&amp;  ./statusCode[isNormalDatatype()]="complete" and not(./inboundRelationship[typeCode="SUBJ" and isNormalActRelationship()]/source[subsumesCode("ActClass#CACT") and moodCode="EVN" and domainMember("ReviseComposition", code) and isNormalAct()]);  amended: .completionCode="AU" &amp;&amp;  ./statusCode[isNormalDatatype()]="complete" and ./inboundRelationship[typeCode="SUBJ" and isNormalActRelationship()]/source[subsumesCode("ActClass#CACT") and moodCode="EVN" and domainMember("ReviseComposition", code) and isNormalAct() and statusCode="completed"];  withdrawn : .completionCode=NI &amp;&amp;  ./statusCode[isNormalDatatype()]="obsolete"</t>
-  </si>
-  <si>
-    <t>DocumentReference.status</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Composition.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Kind of composition (LOINC if possible)</t>
-  </si>
-  <si>
-    <t>Specifies the particular kind of composition (e.g. History and Physical, Discharge Summary, Progress Note). This usually equates to the purpose of making the composition.</t>
-  </si>
-  <si>
-    <t>For Composition type, LOINC is ubiquitous and strongly endorsed by HL7. Most implementation guides will require a specific LOINC code, or use LOINC as an extensible binding.</t>
-  </si>
-  <si>
-    <t>Coder le contexte *Bilan Médicamenteux* de cette Composition.</t>
-  </si>
-  <si>
-    <t>Type of a composition.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/doc-typecodes</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>DocumentReference.type</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>Composition.type.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>Composition.type.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -730,10 +726,6 @@
     <t>Identifier le patient auquel se rapporte obligatoirement un Bilan Médicamenteux, patient référencé en tant que ressource *Patient* profilée *fr-patient*\.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
-  </si>
-  <si>
     <t>.participation[typeCode="SBJ"].role[typeCode="PAT"]</t>
   </si>
   <si>
@@ -767,8 +759,8 @@
     <t>Reference.reference</t>
   </si>
   <si>
-    <t>ele-1
-ref-1</t>
+    <t xml:space="preserve">ref-1
+</t>
   </si>
   <si>
     <t>Composition.subject.type</t>
@@ -848,9 +840,6 @@
     <t>Describes the clinical encounter or type of care this documentation is associated with.</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
     <t>Provides context for the composition and supports searching.</t>
   </si>
   <si>
@@ -1048,9 +1037,6 @@
     <t>The type of attestation the authenticator offers.</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
     <t>Indicates the level of authority of the attestation.</t>
   </si>
   <si>
@@ -1300,14 +1286,6 @@
     <t>The period of time covered by the documentation. There is no assertion that the documentation is a complete representation for this period, only that it documents events during this time.</t>
   </si>
   <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
-  </si>
-  <si>
     <t>DocumentReference.event.period</t>
   </si>
   <si>
@@ -1342,8 +1320,8 @@
     <t>Composition univoque de la ressource *Bilan Médicamenteux*</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-cmp-1:A section must contain at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}</t>
+    <t>cmp-1:A section must contain at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}
+cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
     <t>./outboundRelationship[typeCode="COMP" and isNormalActRelationship()]/target[moodCode="EVN" and classCode="DOCSECT" and isNormalAct]</t>
@@ -1356,6 +1334,12 @@
   </si>
   <si>
     <t>Composition.section.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
   </si>
   <si>
     <t>Composition.section.extension:compositionSourcing</t>
@@ -1380,6 +1364,10 @@
     <t>Décrire obligatoirement les sources consultées.</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t>Composition.section.modifierExtension</t>
   </si>
   <si>
@@ -1471,9 +1459,6 @@
     <t>Le Blian Médicamenteux ne concerne que le patient courant (voir élément *subject* de la *Composition*\).</t>
   </si>
   <si>
-    <t>The target of a resource reference is a RIM entry point (Act, Role, or Entity)</t>
-  </si>
-  <si>
     <t>.subject? (CDA did not differentiate between subject and focus)</t>
   </si>
   <si>
@@ -1489,8 +1474,8 @@
     <t>Document profiles may define what content should be represented in the narrative to ensure clinical safety.</t>
   </si>
   <si>
-    <t>ele-1
-cmp-1</t>
+    <t xml:space="preserve">cmp-1
+</t>
   </si>
   <si>
     <t>.text</t>
@@ -1566,8 +1551,8 @@
     <t>Porter les lignes de traitement médicamenteux du Bilan</t>
   </si>
   <si>
-    <t>ele-1
-cmp-2</t>
+    <t xml:space="preserve">cmp-2
+</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP] or  .participation[typeCode=SBJ]</t>
@@ -1610,10 +1595,6 @@
   </si>
   <si>
     <t>Nested sections are primarily used to help human readers navigate to particular portions of the document.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cmp-1
-</t>
   </si>
   <si>
     <t>.component.section</t>
@@ -2440,16 +2421,16 @@
         <v>90</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AK4" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="AM4" t="s" s="2">
         <v>19</v>
@@ -2463,10 +2444,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2489,16 +2470,16 @@
         <v>91</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2548,7 +2529,7 @@
         <v>19</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>78</v>
@@ -2557,16 +2538,16 @@
         <v>90</v>
       </c>
       <c r="AI5" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ5" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AK5" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>19</v>
@@ -2580,10 +2561,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2606,16 +2587,16 @@
         <v>19</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N6" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2641,32 +2622,32 @@
         <v>19</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="Y6" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>120</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>78</v>
       </c>
@@ -2674,16 +2655,16 @@
         <v>90</v>
       </c>
       <c r="AI6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ6" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AK6" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>19</v>
@@ -2697,14 +2678,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2723,16 +2704,16 @@
         <v>19</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2782,7 +2763,7 @@
         <v>19</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>78</v>
@@ -2791,16 +2772,16 @@
         <v>90</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ7" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AK7" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>19</v>
@@ -2814,14 +2795,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2840,16 +2821,16 @@
         <v>19</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N8" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2899,7 +2880,7 @@
         <v>19</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>78</v>
@@ -2917,7 +2898,7 @@
         <v>19</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>19</v>
@@ -2931,14 +2912,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2957,16 +2938,16 @@
         <v>19</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3004,19 +2985,19 @@
         <v>19</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -3025,16 +3006,16 @@
         <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>19</v>
@@ -3048,14 +3029,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -3074,19 +3055,19 @@
         <v>19</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>19</v>
@@ -3123,19 +3104,19 @@
         <v>19</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="AD10" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -3144,16 +3125,16 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>19</v>
@@ -3167,10 +3148,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3193,16 +3174,16 @@
         <v>91</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3252,42 +3233,42 @@
         <v>19</v>
       </c>
       <c r="AF11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="AG11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>157</v>
-      </c>
       <c r="AL11" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3310,19 +3291,19 @@
         <v>91</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>19</v>
@@ -3347,66 +3328,66 @@
         <v>19</v>
       </c>
       <c r="X12" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="Z12" t="s" s="2">
+      <c r="AO12" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AO12" t="s" s="2">
-        <v>173</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3429,19 +3410,19 @@
         <v>91</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="O13" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>19</v>
@@ -3466,66 +3447,66 @@
         <v>19</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="Y13" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="Z13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="AA13" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AO13" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>186</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3548,13 +3529,13 @@
         <v>19</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3605,7 +3586,7 @@
         <v>19</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3623,7 +3604,7 @@
         <v>19</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>19</v>
@@ -3637,14 +3618,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3663,16 +3644,16 @@
         <v>19</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N15" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3710,19 +3691,19 @@
         <v>19</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3731,16 +3712,16 @@
         <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>19</v>
@@ -3754,10 +3735,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3780,19 +3761,19 @@
         <v>91</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>19</v>
@@ -3802,46 +3783,46 @@
         <v>19</v>
       </c>
       <c r="S16" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="T16" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3850,16 +3831,16 @@
         <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ16" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AK16" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>19</v>
@@ -3873,10 +3854,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3899,19 +3880,19 @@
         <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>19</v>
@@ -3960,25 +3941,25 @@
         <v>19</v>
       </c>
       <c r="AF17" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>19</v>
@@ -3992,10 +3973,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4018,19 +3999,19 @@
         <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>19</v>
@@ -4055,14 +4036,14 @@
         <v>19</v>
       </c>
       <c r="X18" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="Y18" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="Y18" t="s" s="2">
+      <c r="Z18" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="Z18" t="s" s="2">
-        <v>218</v>
-      </c>
       <c r="AA18" t="s" s="2">
         <v>19</v>
       </c>
@@ -4079,7 +4060,7 @@
         <v>19</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -4088,33 +4069,33 @@
         <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ18" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AK18" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AM18" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>221</v>
-      </c>
       <c r="AO18" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4137,19 +4118,19 @@
         <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>19</v>
@@ -4198,7 +4179,7 @@
         <v>19</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -4207,33 +4188,33 @@
         <v>90</v>
       </c>
       <c r="AI19" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ19" t="s" s="2">
+      <c r="AK19" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AK19" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AO19" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>232</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4256,13 +4237,13 @@
         <v>19</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4313,7 +4294,7 @@
         <v>19</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4331,7 +4312,7 @@
         <v>19</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>19</v>
@@ -4345,14 +4326,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4371,16 +4352,16 @@
         <v>19</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N21" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4418,19 +4399,19 @@
         <v>19</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4439,16 +4420,16 @@
         <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>19</v>
@@ -4462,10 +4443,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4488,16 +4469,16 @@
         <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4547,7 +4528,7 @@
         <v>19</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4556,16 +4537,16 @@
         <v>90</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>19</v>
@@ -4579,10 +4560,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4605,16 +4586,16 @@
         <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4625,47 +4606,47 @@
         <v>19</v>
       </c>
       <c r="S23" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="Y23" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="T23" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X23" t="s" s="2">
+      <c r="Z23" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="Y23" t="s" s="2">
+      <c r="AA23" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF23" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="Z23" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>249</v>
-      </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
@@ -4673,16 +4654,16 @@
         <v>90</v>
       </c>
       <c r="AI23" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ23" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AK23" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>19</v>
@@ -4696,10 +4677,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4722,16 +4703,16 @@
         <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4781,7 +4762,7 @@
         <v>19</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4790,16 +4771,16 @@
         <v>90</v>
       </c>
       <c r="AI24" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ24" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AK24" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>19</v>
@@ -4813,10 +4794,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4839,16 +4820,16 @@
         <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4898,7 +4879,7 @@
         <v>19</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4907,16 +4888,16 @@
         <v>90</v>
       </c>
       <c r="AI25" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ25" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AK25" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>19</v>
@@ -4930,10 +4911,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4956,19 +4937,17 @@
         <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="N26" s="2"/>
+      <c r="O26" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>19</v>
@@ -5017,7 +4996,7 @@
         <v>19</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -5026,33 +5005,33 @@
         <v>90</v>
       </c>
       <c r="AI26" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ26" t="s" s="2">
-        <v>228</v>
-      </c>
       <c r="AK26" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AO26" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>271</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5075,19 +5054,19 @@
         <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>19</v>
@@ -5136,7 +5115,7 @@
         <v>19</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>90</v>
@@ -5145,33 +5124,33 @@
         <v>90</v>
       </c>
       <c r="AI27" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ27" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AK27" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AO27" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>282</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5194,19 +5173,19 @@
         <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>19</v>
@@ -5255,7 +5234,7 @@
         <v>19</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>90</v>
@@ -5264,33 +5243,33 @@
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ28" t="s" s="2">
-        <v>228</v>
-      </c>
       <c r="AK28" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>293</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5313,92 +5292,92 @@
         <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="O29" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>19</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>19</v>
@@ -5406,10 +5385,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5432,16 +5411,16 @@
         <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5467,55 +5446,55 @@
         <v>19</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="Y30" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>19</v>
@@ -5523,10 +5502,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5549,19 +5528,19 @@
         <v>19</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>19</v>
@@ -5610,7 +5589,7 @@
         <v>19</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5619,22 +5598,22 @@
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ31" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AK31" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>19</v>
@@ -5642,10 +5621,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5668,13 +5647,13 @@
         <v>19</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5725,7 +5704,7 @@
         <v>19</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5743,7 +5722,7 @@
         <v>19</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>19</v>
@@ -5757,14 +5736,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5783,16 +5762,16 @@
         <v>19</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5830,19 +5809,19 @@
         <v>19</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5851,16 +5830,16 @@
         <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>19</v>
@@ -5874,14 +5853,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5900,19 +5879,19 @@
         <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>19</v>
@@ -5961,7 +5940,7 @@
         <v>19</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5970,16 +5949,16 @@
         <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>19</v>
@@ -5993,10 +5972,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6019,19 +5998,17 @@
         <v>19</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>19</v>
@@ -6056,13 +6033,13 @@
         <v>19</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>19</v>
@@ -6080,7 +6057,7 @@
         <v>19</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>90</v>
@@ -6089,19 +6066,19 @@
         <v>90</v>
       </c>
       <c r="AI35" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ35" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AK35" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>19</v>
@@ -6112,10 +6089,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6138,17 +6115,17 @@
         <v>19</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>19</v>
@@ -6197,28 +6174,28 @@
         <v>19</v>
       </c>
       <c r="AF36" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AG36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>340</v>
-      </c>
       <c r="AM36" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>19</v>
@@ -6229,10 +6206,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6255,19 +6232,17 @@
         <v>19</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>19</v>
@@ -6316,42 +6291,42 @@
         <v>19</v>
       </c>
       <c r="AF37" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AG37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>346</v>
-      </c>
       <c r="AM37" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6374,13 +6349,13 @@
         <v>19</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6431,7 +6406,7 @@
         <v>19</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6449,7 +6424,7 @@
         <v>19</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>19</v>
@@ -6463,14 +6438,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6489,16 +6464,16 @@
         <v>19</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N39" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6536,19 +6511,19 @@
         <v>19</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6557,16 +6532,16 @@
         <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>19</v>
@@ -6580,10 +6555,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6606,16 +6581,16 @@
         <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="N40" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6665,7 +6640,7 @@
         <v>19</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6674,16 +6649,16 @@
         <v>90</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>19</v>
@@ -6697,10 +6672,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6723,16 +6698,16 @@
         <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="N41" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6758,32 +6733,32 @@
         <v>19</v>
       </c>
       <c r="X41" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="Z41" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="Y41" t="s" s="2">
+      <c r="AA41" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF41" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="Z41" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>249</v>
-      </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
@@ -6791,16 +6766,16 @@
         <v>90</v>
       </c>
       <c r="AI41" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ41" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AK41" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>19</v>
@@ -6814,10 +6789,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6840,19 +6815,19 @@
         <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="N42" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="M42" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>253</v>
-      </c>
       <c r="O42" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>19</v>
@@ -6901,7 +6876,7 @@
         <v>19</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6910,16 +6885,16 @@
         <v>90</v>
       </c>
       <c r="AI42" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ42" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AK42" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>19</v>
@@ -6933,10 +6908,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6959,16 +6934,16 @@
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7018,7 +6993,7 @@
         <v>19</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7027,16 +7002,16 @@
         <v>90</v>
       </c>
       <c r="AI43" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ43" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AK43" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>19</v>
@@ -7050,10 +7025,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7076,19 +7051,19 @@
         <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="O44" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>19</v>
@@ -7137,7 +7112,7 @@
         <v>19</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7146,22 +7121,22 @@
         <v>90</v>
       </c>
       <c r="AI44" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ44" t="s" s="2">
-        <v>228</v>
-      </c>
       <c r="AK44" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>19</v>
@@ -7169,10 +7144,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7195,16 +7170,16 @@
         <v>19</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7254,7 +7229,7 @@
         <v>19</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7263,22 +7238,22 @@
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ45" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AK45" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>19</v>
@@ -7286,10 +7261,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7312,13 +7287,13 @@
         <v>19</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7369,7 +7344,7 @@
         <v>19</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7387,7 +7362,7 @@
         <v>19</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>19</v>
@@ -7401,14 +7376,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7427,16 +7402,16 @@
         <v>19</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N47" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7474,19 +7449,19 @@
         <v>19</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7495,16 +7470,16 @@
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>19</v>
@@ -7518,14 +7493,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7544,19 +7519,19 @@
         <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>19</v>
@@ -7605,7 +7580,7 @@
         <v>19</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7614,16 +7589,16 @@
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>19</v>
@@ -7637,10 +7612,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7663,16 +7638,16 @@
         <v>19</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7698,55 +7673,55 @@
         <v>19</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="Y49" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>19</v>
@@ -7754,10 +7729,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7780,13 +7755,13 @@
         <v>19</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7837,31 +7812,31 @@
         <v>19</v>
       </c>
       <c r="AF50" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="AG50" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>388</v>
-      </c>
       <c r="AM50" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>19</v>
@@ -7869,10 +7844,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7895,19 +7870,19 @@
         <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>19</v>
@@ -7956,7 +7931,7 @@
         <v>19</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7965,22 +7940,22 @@
         <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ51" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AK51" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>19</v>
@@ -7988,10 +7963,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8014,13 +7989,13 @@
         <v>19</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8071,7 +8046,7 @@
         <v>19</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8089,7 +8064,7 @@
         <v>19</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>19</v>
@@ -8103,14 +8078,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8129,16 +8104,16 @@
         <v>19</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N53" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8176,19 +8151,19 @@
         <v>19</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8197,16 +8172,16 @@
         <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>19</v>
@@ -8220,14 +8195,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8246,19 +8221,19 @@
         <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>19</v>
@@ -8307,7 +8282,7 @@
         <v>19</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8316,16 +8291,16 @@
         <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>19</v>
@@ -8339,10 +8314,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8365,16 +8340,16 @@
         <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8400,13 +8375,13 @@
         <v>19</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>19</v>
@@ -8424,7 +8399,7 @@
         <v>19</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8433,22 +8408,22 @@
         <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ55" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AK55" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>19</v>
@@ -8456,10 +8431,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8482,17 +8457,15 @@
         <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>413</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>19</v>
@@ -8541,31 +8514,31 @@
         <v>19</v>
       </c>
       <c r="AF56" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>19</v>
@@ -8573,10 +8546,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8599,17 +8572,15 @@
         <v>91</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>19</v>
@@ -8658,7 +8629,7 @@
         <v>19</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8667,19 +8638,19 @@
         <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ57" t="s" s="2">
-        <v>228</v>
-      </c>
       <c r="AK57" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>19</v>
@@ -8690,10 +8661,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8716,19 +8687,19 @@
         <v>19</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>19</v>
@@ -8777,7 +8748,7 @@
         <v>19</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8786,19 +8757,19 @@
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>19</v>
@@ -8809,10 +8780,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8835,13 +8806,13 @@
         <v>19</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8892,7 +8863,7 @@
         <v>19</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8910,7 +8881,7 @@
         <v>19</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>19</v>
@@ -8924,14 +8895,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8950,17 +8921,15 @@
         <v>19</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>139</v>
+        <v>425</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>19</v>
@@ -8997,19 +8966,17 @@
         <v>19</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="AC60" s="2"/>
       <c r="AD60" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -9018,16 +8985,16 @@
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>19</v>
@@ -9041,13 +9008,13 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>19</v>
@@ -9069,19 +9036,19 @@
         <v>19</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="O61" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>19</v>
@@ -9130,7 +9097,7 @@
         <v>19</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9139,10 +9106,10 @@
         <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>102</v>
+        <v>434</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>19</v>
@@ -9162,14 +9129,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9188,19 +9155,19 @@
         <v>91</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>19</v>
@@ -9249,7 +9216,7 @@
         <v>19</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9258,16 +9225,16 @@
         <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>19</v>
@@ -9281,14 +9248,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9307,26 +9274,26 @@
         <v>19</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="O63" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>19</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>19</v>
@@ -9368,7 +9335,7 @@
         <v>19</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9377,19 +9344,19 @@
         <v>90</v>
       </c>
       <c r="AI63" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ63" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AK63" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>19</v>
@@ -9400,10 +9367,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9426,19 +9393,19 @@
         <v>19</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="O64" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>19</v>
@@ -9463,13 +9430,13 @@
         <v>19</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>19</v>
@@ -9487,7 +9454,7 @@
         <v>19</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9496,19 +9463,19 @@
         <v>90</v>
       </c>
       <c r="AI64" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ64" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AK64" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>19</v>
@@ -9519,10 +9486,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9545,13 +9512,13 @@
         <v>19</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9602,7 +9569,7 @@
         <v>19</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9620,7 +9587,7 @@
         <v>19</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>19</v>
@@ -9634,14 +9601,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9660,16 +9627,16 @@
         <v>19</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N66" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9707,19 +9674,19 @@
         <v>19</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9728,16 +9695,16 @@
         <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>19</v>
@@ -9751,10 +9718,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9777,68 +9744,68 @@
         <v>91</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="N67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>19</v>
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF67" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9847,16 +9814,16 @@
         <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ67" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AK67" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>19</v>
@@ -9870,10 +9837,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9896,19 +9863,19 @@
         <v>91</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="N68" t="s" s="2">
+      <c r="O68" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>19</v>
@@ -9957,25 +9924,25 @@
         <v>19</v>
       </c>
       <c r="AF68" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL68" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>19</v>
@@ -9989,10 +9956,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10015,19 +9982,17 @@
         <v>19</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>19</v>
@@ -10076,7 +10041,7 @@
         <v>19</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10085,33 +10050,33 @@
         <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ69" t="s" s="2">
-        <v>228</v>
-      </c>
       <c r="AK69" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL69" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AO69" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>293</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10134,19 +10099,19 @@
         <v>19</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="O70" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>19</v>
@@ -10195,7 +10160,7 @@
         <v>19</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10204,19 +10169,19 @@
         <v>90</v>
       </c>
       <c r="AI70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ70" t="s" s="2">
-        <v>228</v>
-      </c>
       <c r="AK70" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>467</v>
+        <v>19</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>19</v>
@@ -10227,10 +10192,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10253,16 +10218,16 @@
         <v>19</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10312,28 +10277,28 @@
         <v>19</v>
       </c>
       <c r="AF71" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI71" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="AG71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>473</v>
-      </c>
       <c r="AJ71" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>19</v>
@@ -10344,10 +10309,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10370,19 +10335,19 @@
         <v>19</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>19</v>
@@ -10392,7 +10357,7 @@
         <v>19</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>19</v>
@@ -10407,66 +10372,66 @@
         <v>19</v>
       </c>
       <c r="X72" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="Y72" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="AN72" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10489,19 +10454,19 @@
         <v>19</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>19</v>
@@ -10526,13 +10491,13 @@
         <v>19</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>19</v>
@@ -10550,7 +10515,7 @@
         <v>19</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10559,19 +10524,19 @@
         <v>90</v>
       </c>
       <c r="AI73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ73" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AK73" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>19</v>
@@ -10582,10 +10547,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10608,19 +10573,19 @@
         <v>19</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="O74" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>19</v>
@@ -10669,7 +10634,7 @@
         <v>19</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -10678,19 +10643,19 @@
         <v>79</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>228</v>
+        <v>102</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>19</v>
@@ -10701,10 +10666,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10727,19 +10692,19 @@
         <v>19</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>19</v>
@@ -10764,13 +10729,13 @@
         <v>19</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>19</v>
@@ -10788,7 +10753,7 @@
         <v>19</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -10797,19 +10762,19 @@
         <v>90</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>19</v>
@@ -10820,10 +10785,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10849,13 +10814,13 @@
         <v>19</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10905,7 +10870,7 @@
         <v>19</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -10914,19 +10879,19 @@
         <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>513</v>
+        <v>469</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>19</v>
